--- a/gd/数值规划/宠物养成-宠物强化.xlsx
+++ b/gd/数值规划/宠物养成-宠物强化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="-180" windowWidth="27630" windowHeight="12360"/>
+    <workbookView xWindow="-675" yWindow="495" windowWidth="27630" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文档版本" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>版本</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -420,6 +420,10 @@
   </si>
   <si>
     <t>进阶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶等级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -997,22 +1001,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1033,23 +1046,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1088,12 +1098,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1178,7 +1182,13 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="26">
+          <cell r="P26">
+            <v>7.3231592024144021</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2">
         <row r="67">
           <cell r="F67">
@@ -1357,6 +1367,8 @@
       <sheetName val="镶嵌宝石"/>
       <sheetName val="属性能力生成表"/>
       <sheetName val="宠物升阶生成表"/>
+      <sheetName val="装备拆分生成表"/>
+      <sheetName val="装备拆分分析表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1392,6 +1404,8 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1686,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:J21"/>
     </sheetView>
   </sheetViews>
@@ -1694,221 +1708,251 @@
   <sheetData>
     <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="47" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="48"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="58"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="58"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="58"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="58"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="58"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="59"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
@@ -1921,42 +1965,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1967,7 +1981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -3473,9 +3487,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
@@ -3484,9 +3498,9 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="12">
         <v>0.08</v>
       </c>
@@ -3504,18 +3518,18 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -3525,9 +3539,9 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -3713,7 +3727,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="17">
@@ -3942,7 +3956,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="20">
         <v>2</v>
       </c>
@@ -4179,7 +4193,7 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="20">
         <v>3</v>
       </c>
@@ -4416,7 +4430,7 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="20">
         <v>4</v>
       </c>
@@ -4653,7 +4667,7 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="20">
         <v>5</v>
       </c>
@@ -4890,7 +4904,7 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="20">
         <v>6</v>
       </c>
@@ -5127,7 +5141,7 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="20">
         <v>7</v>
       </c>
@@ -5364,7 +5378,7 @@
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A15" s="63"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="20">
         <v>8</v>
       </c>
@@ -5601,7 +5615,7 @@
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A16" s="63"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="20">
         <v>9</v>
       </c>
@@ -5838,7 +5852,7 @@
       </c>
     </row>
     <row r="17" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="23">
         <v>10</v>
       </c>
@@ -6049,7 +6063,7 @@
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="67" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="26">
@@ -6287,7 +6301,7 @@
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A19" s="66"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="30">
         <v>12</v>
       </c>
@@ -6523,7 +6537,7 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="30">
         <v>13</v>
       </c>
@@ -6759,7 +6773,7 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A21" s="66"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="30">
         <v>14</v>
       </c>
@@ -6995,7 +7009,7 @@
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A22" s="66"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="30">
         <v>15</v>
       </c>
@@ -7234,7 +7248,7 @@
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A23" s="66"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="30">
         <v>16</v>
       </c>
@@ -7471,7 +7485,7 @@
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A24" s="66"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="30">
         <v>17</v>
       </c>
@@ -7708,7 +7722,7 @@
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A25" s="66"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="30">
         <v>18</v>
       </c>
@@ -7945,7 +7959,7 @@
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="30">
         <v>19</v>
       </c>
@@ -8182,7 +8196,7 @@
       </c>
     </row>
     <row r="27" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="33">
         <v>20</v>
       </c>
@@ -8394,7 +8408,7 @@
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="70" t="s">
         <v>77</v>
       </c>
       <c r="B28" s="26">
@@ -8635,7 +8649,7 @@
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A29" s="69"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="30">
         <v>22</v>
       </c>
@@ -8874,7 +8888,7 @@
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="30">
         <v>23</v>
       </c>
@@ -9113,7 +9127,7 @@
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A31" s="69"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="30">
         <v>24</v>
       </c>
@@ -9352,7 +9366,7 @@
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="30">
         <v>25</v>
       </c>
@@ -9589,7 +9603,7 @@
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A33" s="69"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="30">
         <v>26</v>
       </c>
@@ -9826,7 +9840,7 @@
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="30">
         <v>27</v>
       </c>
@@ -10063,7 +10077,7 @@
       </c>
     </row>
     <row r="35" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A35" s="69"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="30">
         <v>28</v>
       </c>
@@ -10300,7 +10314,7 @@
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A36" s="69"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="30">
         <v>29</v>
       </c>
@@ -10537,7 +10551,7 @@
       </c>
     </row>
     <row r="37" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A37" s="69"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="30">
         <v>30</v>
       </c>
@@ -10766,7 +10780,7 @@
       </c>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="30">
         <v>31</v>
       </c>
@@ -10995,7 +11009,7 @@
       </c>
     </row>
     <row r="39" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="70"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="33">
         <v>32</v>
       </c>
@@ -11224,7 +11238,7 @@
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="73" t="s">
         <v>81</v>
       </c>
       <c r="B40" s="26">
@@ -11463,7 +11477,7 @@
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="30">
         <v>34</v>
       </c>
@@ -11700,7 +11714,7 @@
       </c>
     </row>
     <row r="42" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A42" s="72"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="30">
         <v>35</v>
       </c>
@@ -11939,7 +11953,7 @@
       </c>
     </row>
     <row r="43" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A43" s="72"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="30">
         <v>36</v>
       </c>
@@ -12178,7 +12192,7 @@
       </c>
     </row>
     <row r="44" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A44" s="72"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="30">
         <v>37</v>
       </c>
@@ -12417,7 +12431,7 @@
       </c>
     </row>
     <row r="45" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A45" s="72"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="30">
         <v>38</v>
       </c>
@@ -12654,7 +12668,7 @@
       </c>
     </row>
     <row r="46" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A46" s="72"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="30">
         <v>39</v>
       </c>
@@ -12893,7 +12907,7 @@
       </c>
     </row>
     <row r="47" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A47" s="72"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="30">
         <v>40</v>
       </c>
@@ -12937,7 +12951,7 @@
       <c r="P47" s="29"/>
     </row>
     <row r="48" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
+      <c r="A48" s="75"/>
       <c r="B48" s="33">
         <v>41</v>
       </c>
@@ -12981,7 +12995,7 @@
       <c r="P48" s="29"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="61" t="s">
         <v>83</v>
       </c>
       <c r="B49" s="39">
@@ -13029,7 +13043,7 @@
       <c r="P49" s="29"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="75"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="30">
         <v>43</v>
       </c>
@@ -13073,7 +13087,7 @@
       <c r="P50" s="29"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="75"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="30">
         <v>44</v>
       </c>
@@ -13117,7 +13131,7 @@
       <c r="P51" s="29"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52" s="75"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="30">
         <v>45</v>
       </c>
@@ -13161,7 +13175,7 @@
       <c r="P52" s="29"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53" s="75"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="30">
         <v>46</v>
       </c>
@@ -13205,7 +13219,7 @@
       <c r="P53" s="29"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54" s="75"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="30">
         <v>47</v>
       </c>
@@ -13247,7 +13261,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55" s="75"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="30">
         <v>48</v>
       </c>
@@ -13289,7 +13303,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A56" s="75"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="30">
         <v>49</v>
       </c>
@@ -13331,7 +13345,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A57" s="75"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="30">
         <v>50</v>
       </c>
@@ -13436,8 +13450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13519,6 +13533,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
       <c r="J8" t="s">
         <v>92</v>
       </c>
